--- a/basic-forms/forms/app/dynamic_error_message.xlsx
+++ b/basic-forms/forms/app/dynamic_error_message.xlsx
@@ -83,13 +83,41 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
+Can be translated.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
+Can be translated.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">One or more modifiers that determine how the question will be displayed.
 These can be specific to the field type.</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,21 +143,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">A message shown when the constraint expression evaluates to false.
 Can be translated.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -277,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -483,6 +510,12 @@
     <t xml:space="preserve">label::fr</t>
   </si>
   <si>
+    <t xml:space="preserve">hint::en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hint::fr</t>
+  </si>
+  <si>
     <t xml:space="preserve">appearance</t>
   </si>
   <si>
@@ -556,6 +589,39 @@
   </si>
   <si>
     <t xml:space="preserve">Entrez un nombre de 2 à 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See [this forum thread](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) for more context.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Voir [ce fil de discussion du forum](</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) pour plus de contexte.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">${my_num_issue} = ‘’</t>
@@ -649,7 +715,7 @@
     <numFmt numFmtId="166" formatCode="0"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -674,6 +740,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1124,14 +1197,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1140,23 +1213,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="30.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="53.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="27.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16381" min="23" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="30.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="24.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="27.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="25" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1172,22 +1246,22 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1199,19 +1273,19 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
@@ -1222,129 +1296,139 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="W3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="0"/>
-      <c r="XFB5" s="0"/>
-      <c r="XFC5" s="0"/>
-      <c r="XFD5" s="0"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="W6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1352,14 +1436,14 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I18:U9990 A17:B17 I17:U17 J7:U16 I11:I16 A18:G9990 E17:G17 A11:G16 A7:I9 A2:U2 A4:U4 H11:H9990">
+  <conditionalFormatting sqref="K18:W9990 A17:B17 K17:W17 L7:W16 K11:K16 G18:I9990 G17:I17 G11:I16 G7:K9 G2:W2 G4:W4 J11:J9990 A18:D9990 A11:D16 A7:D9 A2:D2 A4:D4 E2:F10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1386,9 +1470,9 @@
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I9990 I2 I7:I9 I4">
+  <conditionalFormatting sqref="K11:K9990 K2 K7:K9 K4">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A2="calculate", ISBLANK(I2))</formula>
+      <formula>AND($A2="calculate", ISBLANK(K2))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D17">
@@ -1411,7 +1495,7 @@
       <formula>AND(ISBLANK(C17),NOT(OR(ISBLANK($A17),$A17="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:U3">
+  <conditionalFormatting sqref="G3:W3 A3:D3">
     <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A3="begin_group"</formula>
     </cfRule>
@@ -1438,12 +1522,12 @@
       <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
+  <conditionalFormatting sqref="K3">
     <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A3="calculate", ISBLANK(I3))</formula>
+      <formula>AND($A3="calculate", ISBLANK(K3))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:U6">
+  <conditionalFormatting sqref="G5:W6 A5:D6">
     <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A5="begin_group"</formula>
     </cfRule>
@@ -1470,9 +1554,9 @@
       <formula>AND(ISBLANK(C5),NOT(OR(ISBLANK($A5),$A5="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I6">
+  <conditionalFormatting sqref="K5:K6">
     <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A5="calculate", ISBLANK(I5))</formula>
+      <formula>AND($A5="calculate", ISBLANK(K5))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -1484,15 +1568,18 @@
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2:L1005 Q2:Q1005 T2:T1005" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2:N1005 S2:S1005 V2:V1005" type="list">
       <formula1>"true"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S2:S1005" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U2:U1005" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId2" display="https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1500,7 +1587,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1530,7 +1617,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1542,41 +1629,41 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1644,37 +1731,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250414135634</v>
+        <v>20250415081630</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/dynamic_error_message.xlsx
+++ b/basic-forms/forms/app/dynamic_error_message.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -83,7 +83,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
 Can be translated.</t>
@@ -97,7 +96,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
 Can be translated.</t>
@@ -172,152 +170,6 @@
       </text>
     </comment>
     <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Used with select questions to filter the choices shown to the user. The expression will be evaluated against each choice. If it evaluates to true, the choice is included.
-For example, the expression "country = ${country}" includes choices for which the country column's value matches the value of the ${country} field in the form.
-https://docs.getodk.org/form-logic/#filtering-options-in-select-questions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">One or more pairs of keys and values that configure aspects of a question type that are not appearance-related.
-For example, an image question might have: max-pixels=1024</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set ‘true’ to indicate that a question’s value cannot be edited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The number of instances of a repeat to create. Can be a fixed value or a 
-dynamic expression.
-https://docs.getodk.org/form-logic/#fixed-repeat-count</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an image to display in addition to or instead of a text label.
- Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an audio file. This will display a button to play the audio next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of a video file. This will display a button to play the video next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates the data for a group should be written to the database as a new document.
-https://docs.communityhealthtoolkit.org/apps/guides/forms/additional-docs/
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates that a calculate should be populated as part of the db-data workflow.
-Set the `/form_id` value to populate the field with the id of the report when it is submitted. Set `${group_name}` to populate the field with the id of the document written for the group_name group (assuming that group_name has been marked with instance::db-doc = true).
-https://docs.communityhealthtoolkit.org/apps/guides/forms/additional-docs/</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The custom duration to use for a countdown timer.
-https://docs.communityhealthtoolkit.org/apps/reference/forms/app/#countdown-timer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates that input for a  telephone field should be rejected if the given number is already associated with an existing contact.
-https://docs.communityhealthtoolkit.org/apps/reference/forms/app/#phone-number-input</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,45 +230,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an image to display in addition to or instead of a text label.
- Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an audio file. This will display a button to play the audio next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of a video file. This will display a button to play the video next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -496,7 +309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -531,39 +344,6 @@
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::db-doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::db-doc-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::cht:duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::cht:unique_tel</t>
-  </si>
-  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -573,9 +353,6 @@
     <t xml:space="preserve">page</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
@@ -594,34 +371,7 @@
     <t xml:space="preserve">See [this forum thread](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) for more context.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Voir [ce fil de discussion du forum](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) pour plus de contexte.</t>
-    </r>
+    <t xml:space="preserve">Voir [ce fil de discussion du forum](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) pour plus de contexte.</t>
   </si>
   <si>
     <t xml:space="preserve">${my_num_issue} = ‘’</t>
@@ -634,6 +384,9 @@
   </si>
   <si>
     <t xml:space="preserve">my_num_issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placeholder for calculating message</t>
   </si>
   <si>
     <t xml:space="preserve">hidden</t>
@@ -709,13 +462,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -755,13 +507,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -908,31 +653,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,14 +942,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,217 +963,142 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="30.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="27.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="25" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16372" min="14" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1443,7 +1113,7 @@
       <c r="K10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K18:W9990 A17:B17 K17:W17 L7:W16 K11:K16 G18:I9990 G17:I17 G11:I16 G7:K9 G2:W2 G4:W4 J11:J9990 A18:D9990 A11:D16 A7:D9 A2:D2 A4:D4 E2:F10000">
+  <conditionalFormatting sqref="A17:B17 L2:L9989 G11:K9989 A18:D9989 A11:D16 A2:D9 E2:F9999 G2:K9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1460,17 +1130,17 @@
       <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B9990 B2 B7:B9 B4">
+  <conditionalFormatting sqref="B11:B9989 B2:B9">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D9990 C11:D16 C2:D2 C7:D9 C4:D4">
+  <conditionalFormatting sqref="C18:D9989 C11:D16 C2:D9">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")),ISBLANK($K2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K9990 K2 K7:K9 K4">
+  <conditionalFormatting sqref="K11:K9989 K2:K9">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(K2))</formula>
     </cfRule>
@@ -1495,90 +1165,18 @@
       <formula>AND(ISBLANK(C17),NOT(OR(ISBLANK($A17),$A17="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:W3 A3:D3">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A3="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A3="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A3="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A3="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A3="calculate", ISBLANK(K3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:W6 A5:D6">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A5="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A5="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A5="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A5="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A5), NOT(ISBLANK(A5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B5), NOT(ISBLANK($A5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D6">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C5),NOT(OR(ISBLANK($A5),$A5="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A5="calculate", ISBLANK(K5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A9 A11:A1005" type="list">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A9 A11:A1004" type="list">
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2:N1005 S2:S1005 V2:V1005" type="list">
-      <formula1>"true"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U2:U1005" type="whole">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId2" display="https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960"/>
+    <hyperlink ref="F4" r:id="rId2" display="Voir [ce fil de discussion du forum](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) pour plus de contexte."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1596,12 +1194,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,65 +1207,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="29" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Y10000">
+  <conditionalFormatting sqref="A2:V10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1694,9 +1282,9 @@
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10000">
+  <conditionalFormatting sqref="J2:J10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A2="calculate", ISBLANK(M2))</formula>
+      <formula>AND($A2="calculate", ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1731,37 +1319,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250415081630</v>
+        <v>20251119134709</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/dynamic_error_message.xlsx
+++ b/basic-forms/forms/app/dynamic_error_message.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -261,38 +261,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -434,9 +420,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -447,9 +430,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic Error Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic_error_message</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -949,7 +929,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1303,18 +1283,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,26 +1309,20 @@
       <c r="D1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
+        <v>20260114092004</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C2" s="8" t="str">
-        <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20251119134709</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/basic-forms/forms/app/dynamic_error_message.xlsx
+++ b/basic-forms/forms/app/dynamic_error_message.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -83,7 +83,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
 Can be translated.</t>
@@ -97,7 +96,6 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A hint that will be shown to the user below the question's label in smaller text.
 Can be translated.</t>
@@ -172,152 +170,6 @@
       </text>
     </comment>
     <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Used with select questions to filter the choices shown to the user. The expression will be evaluated against each choice. If it evaluates to true, the choice is included.
-For example, the expression "country = ${country}" includes choices for which the country column's value matches the value of the ${country} field in the form.
-https://docs.getodk.org/form-logic/#filtering-options-in-select-questions</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">One or more pairs of keys and values that configure aspects of a question type that are not appearance-related.
-For example, an image question might have: max-pixels=1024</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set ‘true’ to indicate that a question’s value cannot be edited.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The number of instances of a repeat to create. Can be a fixed value or a 
-dynamic expression.
-https://docs.getodk.org/form-logic/#fixed-repeat-count</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an image to display in addition to or instead of a text label.
- Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an audio file. This will display a button to play the audio next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of a video file. This will display a button to play the video next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates the data for a group should be written to the database as a new document.
-https://docs.communityhealthtoolkit.org/apps/guides/forms/additional-docs/
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates that a calculate should be populated as part of the db-data workflow.
-Set the `/form_id` value to populate the field with the id of the report when it is submitted. Set `${group_name}` to populate the field with the id of the document written for the group_name group (assuming that group_name has been marked with instance::db-doc = true).
-https://docs.communityhealthtoolkit.org/apps/guides/forms/additional-docs/</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">The custom duration to use for a countdown timer.
-https://docs.communityhealthtoolkit.org/apps/reference/forms/app/#countdown-timer</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Indicates that input for a  telephone field should be rejected if the given number is already associated with an existing contact.
-https://docs.communityhealthtoolkit.org/apps/reference/forms/app/#phone-number-input</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,45 +230,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an image to display in addition to or instead of a text label.
- Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of an audio file. This will display a button to play the audio next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Specify the filename of a video file. This will display a button to play the video next to the question label.
-Can be translated.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -448,38 +261,24 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">The unique ID that identifies this form to tools that use it. It may not contain spaces and must start with a letter or underscore. You should use a short, descriptive name and can use underscores to separate words. 
-For example: bench_inventory_2021
-You can change the form_title as much as you would like but if you change the form_id, it will be considered a different form definition.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
           <t xml:space="preserve">The unique version code that identifies the current state of the form. A common convention is to use a format like yyyymmddrr. For example, 2017021501 is the 1st revision from Feb 15th, 2017.
 By default, this template uses a formula to create a date-based version that will update automatically.</t>
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Set to ‘pages’ to indicate that groups with the `field-list` appearance represent separate form pages (and all other questions will be shown on their own page). </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -531,39 +330,6 @@
     <t xml:space="preserve">calculation</t>
   </si>
   <si>
-    <t xml:space="preserve">choice_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">read_only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repeat_count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audio::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video::English (en)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::db-doc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::db-doc-ref</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::cht:duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instance::cht:unique_tel</t>
-  </si>
-  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
@@ -573,9 +339,6 @@
     <t xml:space="preserve">page</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">field-list</t>
   </si>
   <si>
@@ -594,34 +357,7 @@
     <t xml:space="preserve">See [this forum thread](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) for more context.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Voir [ce fil de discussion du forum](</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">) pour plus de contexte.</t>
-    </r>
+    <t xml:space="preserve">Voir [ce fil de discussion du forum](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) pour plus de contexte.</t>
   </si>
   <si>
     <t xml:space="preserve">${my_num_issue} = ‘’</t>
@@ -636,6 +372,9 @@
     <t xml:space="preserve">my_num_issue</t>
   </si>
   <si>
+    <t xml:space="preserve">Placeholder for calculating message</t>
+  </si>
+  <si>
     <t xml:space="preserve">hidden</t>
   </si>
   <si>
@@ -681,9 +420,6 @@
     <t xml:space="preserve">form_title</t>
   </si>
   <si>
-    <t xml:space="preserve">form_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">version</t>
   </si>
   <si>
@@ -694,9 +430,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dynamic Error Message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dynamic_error_message</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -709,13 +442,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -755,13 +487,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -908,31 +633,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1197,14 +922,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1218,217 +943,142 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="30.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="24.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="27.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="25" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16372" min="14" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="W3" s="5"/>
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="5"/>
+      <c r="G5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="W6" s="5"/>
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1443,7 +1093,7 @@
       <c r="K10" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K18:W9990 A17:B17 K17:W17 L7:W16 K11:K16 G18:I9990 G17:I17 G11:I16 G7:K9 G2:W2 G4:W4 J11:J9990 A18:D9990 A11:D16 A7:D9 A2:D2 A4:D4 E2:F10000">
+  <conditionalFormatting sqref="A17:B17 L2:L9989 G11:K9989 A18:D9989 A11:D16 A2:D9 E2:F9999 G2:K9">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1460,17 +1110,17 @@
       <formula>AND(ISBLANK($A2), NOT(ISBLANK(A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B9990 B2 B7:B9 B4">
+  <conditionalFormatting sqref="B11:B9989 B2:B9">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND(ISBLANK(B2), NOT(ISBLANK($A2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:D9990 C11:D16 C2:D2 C7:D9 C4:D4">
+  <conditionalFormatting sqref="C18:D9989 C11:D16 C2:D9">
     <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
+      <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")),ISBLANK($K2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K9990 K2 K7:K9 K4">
+  <conditionalFormatting sqref="K11:K9989 K2:K9">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>AND($A2="calculate", ISBLANK(K2))</formula>
     </cfRule>
@@ -1495,90 +1145,18 @@
       <formula>AND(ISBLANK(C17),NOT(OR(ISBLANK($A17),$A17="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:W3 A3:D3">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A3="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A3="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="18" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A3="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="19" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A3="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A3), NOT(ISBLANK(A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B3), NOT(ISBLANK($A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D3">
-    <cfRule type="expression" priority="22" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C3),NOT(OR(ISBLANK($A3),$A3="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3">
-    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A3="calculate", ISBLANK(K3))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:W6 A5:D6">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$A5="begin_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>$A5="end_group"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="26" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>$A5="begin_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>$A5="end_repeat"</formula>
-    </cfRule>
-    <cfRule type="expression" priority="28" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK($A5), NOT(ISBLANK(A5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6">
-    <cfRule type="expression" priority="29" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(B5), NOT(ISBLANK($A5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5:D6">
-    <cfRule type="expression" priority="30" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND(ISBLANK(C5),NOT(OR(ISBLANK($A5),$A5="calculate")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K6">
-    <cfRule type="expression" priority="31" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A5="calculate", ISBLANK(K5))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A1" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A9 A11:A1005" type="list">
+    <dataValidation allowBlank="true" error="If configuring a select, ensure your list name matches a list from the choices sheet." errorStyle="information" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A2:A9 A11:A1004" type="list">
       <formula1>"begin_group,end_group,note,calculate,text,integer,decimal,select_one list_name,select_multiple list_name,date,time,datetime,begin_repeat,end_repeat,geopoint,geotrace,geoshape,start-geopoint,range,image,audio,video,file,rank,acknowledge,start,end,today"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2:N1005 S2:S1005 V2:V1005" type="list">
-      <formula1>"true"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U2:U1005" type="whole">
-      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId2" display="https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960"/>
+    <hyperlink ref="F4" r:id="rId2" display="Voir [ce fil de discussion du forum](https://forum.communityhealthtoolkit.org/t/how-to-list-multiple-constraint-messages-on-a-single-field-in-xlsform/960) pour plus de contexte."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -1596,12 +1174,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1609,65 +1187,55 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="22.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="22" min="5" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="29" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Y10000">
+  <conditionalFormatting sqref="A2:V10000">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2="begin_group"</formula>
     </cfRule>
@@ -1694,9 +1262,9 @@
       <formula>AND(ISBLANK(C2),NOT(OR(ISBLANK($A2),$A2="calculate")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M10000">
+  <conditionalFormatting sqref="J2:J10000">
     <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>AND($A2="calculate", ISBLANK(M2))</formula>
+      <formula>AND($A2="calculate", ISBLANK(J2))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1715,53 +1283,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="17.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="32.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="32.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="8" t="str">
+        <v>44</v>
+      </c>
+      <c r="B2" s="8" t="str">
         <f aca="true">TEXT(NOW(), "yyyymmddhhmmss")</f>
-        <v>20250415081630</v>
+        <v>20260114092004</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
